--- a/2020/January/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/January/Others/Price List Update_01.01.2020.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1327,7 +1328,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2427,7 +2428,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2873,7 +2874,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2944,7 +2945,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3018,7 +3019,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3089,7 +3090,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3406,7 +3407,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4506,7 +4507,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4952,7 +4953,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5023,7 +5024,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5097,7 +5098,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5168,7 +5169,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5485,7 +5486,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6585,7 +6586,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7031,7 +7032,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7102,7 +7103,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7176,7 +7177,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7247,7 +7248,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7468,6 +7469,234 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="Picture 13" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="19050"/>
+          <a:ext cx="133350" cy="110966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>164313</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686051" y="76201"/>
+          <a:ext cx="1183487" cy="2637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2653</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705226" y="66675"/>
+          <a:ext cx="2652" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>513692</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>327117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2666342" y="9525"/>
+          <a:ext cx="381658" cy="317592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="47626"/>
+          <a:ext cx="9906" cy="2286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>196561</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="47625"/>
+          <a:ext cx="482311" cy="2286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="kisspng-koszalin-logo-rose-logo-5aebf8f140ea47-removebg-preview.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7783,7 +8012,7 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
@@ -9031,7 +9260,7 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -10109,10 +10338,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I52" sqref="A1:K53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10130,7 +10359,7 @@
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1">
+    <row r="1" spans="1:25" ht="27" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>87</v>
       </c>
@@ -10144,8 +10373,19 @@
       <c r="I1" s="73"/>
       <c r="J1" s="73"/>
       <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.5" customHeight="1">
       <c r="A2" s="74" t="s">
         <v>115</v>
       </c>
@@ -10159,8 +10399,19 @@
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
       <c r="K2" s="74"/>
-    </row>
-    <row r="3" spans="1:11" s="41" customFormat="1" ht="18.75">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+    </row>
+    <row r="3" spans="1:25" s="41" customFormat="1" ht="18.75">
       <c r="A3" s="75" t="s">
         <v>96</v>
       </c>
@@ -10177,7 +10428,7 @@
       <c r="J3" s="75"/>
       <c r="K3" s="75"/>
     </row>
-    <row r="4" spans="1:11" s="40" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:25" s="40" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>97</v>
       </c>
@@ -10210,7 +10461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:25" ht="15.75">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -10239,7 +10490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:25" ht="15.75">
       <c r="A6" s="46" t="s">
         <v>72</v>
       </c>
@@ -10268,7 +10519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:25" ht="15.75">
       <c r="A7" s="46" t="s">
         <v>34</v>
       </c>
@@ -10297,7 +10548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:25" ht="15.75">
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
@@ -10326,7 +10577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:25" ht="15.75">
       <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
@@ -10357,7 +10608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:25" ht="15.75">
       <c r="A10" s="46" t="s">
         <v>69</v>
       </c>
@@ -10378,7 +10629,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:25" ht="15.75">
       <c r="A11" s="46" t="s">
         <v>76</v>
       </c>
@@ -10407,7 +10658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:25" ht="15.75">
       <c r="A12" s="46" t="s">
         <v>119</v>
       </c>
@@ -10438,7 +10689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:25" ht="15.75">
       <c r="A13" s="46" t="s">
         <v>45</v>
       </c>
@@ -10467,7 +10718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:25" ht="15.75">
       <c r="A14" s="46" t="s">
         <v>15</v>
       </c>
@@ -10496,7 +10747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:25" ht="15.75">
       <c r="A15" s="46" t="s">
         <v>46</v>
       </c>
@@ -10525,7 +10776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:25" ht="15.75">
       <c r="A16" s="46" t="s">
         <v>36</v>
       </c>
@@ -10803,7 +11054,9 @@
         <v>3890</v>
       </c>
       <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="K25" s="47">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="46" t="s">
@@ -11584,7 +11837,9 @@
       <c r="K53" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="O1:Y1"/>
+    <mergeCell ref="O2:Y2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:E3"/>
@@ -11595,7 +11850,19 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2020/January/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/January/Others/Price List Update_01.01.2020.xlsx
@@ -1328,7 +1328,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2428,7 +2428,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2874,7 +2874,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2945,7 +2945,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3019,7 +3019,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3090,7 +3090,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3407,7 +3407,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4507,7 +4507,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4953,7 +4953,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5024,7 +5024,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5098,7 +5098,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5169,7 +5169,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5486,7 +5486,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6586,7 +6586,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7032,7 +7032,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7103,7 +7103,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7177,7 +7177,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7248,7 +7248,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -10341,7 +10341,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11589,10 +11589,10 @@
         <v>77</v>
       </c>
       <c r="B44" s="49">
-        <v>6890</v>
+        <v>6470</v>
       </c>
       <c r="C44" s="49">
-        <v>7490</v>
+        <v>6990</v>
       </c>
       <c r="D44" s="47"/>
       <c r="E44" s="47">
@@ -11838,15 +11838,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="D52:H53"/>
+    <mergeCell ref="A52:C53"/>
     <mergeCell ref="O1:Y1"/>
     <mergeCell ref="O2:Y2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="D52:H53"/>
-    <mergeCell ref="A52:C53"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
